--- a/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V4/D11_03_2024/B3_B03_13.15_15.30/analysis_B3_B03_13.15_15.30.xlsx
+++ b/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V4/D11_03_2024/B3_B03_13.15_15.30/analysis_B3_B03_13.15_15.30.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
@@ -491,13 +491,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total distance covered (in kilometers)</t>
+          <t>Total distance covered (km)</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -507,7 +507,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WH/KM</t>
+          <t>Total energy consumption(WH/KM)</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -517,7 +517,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total SOC consumed</t>
+          <t>Total SOC consumed(%)</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -540,7 +540,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Peak Power</t>
+          <t>Peak Power(kW)</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -550,7 +550,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Average Power</t>
+          <t>Average Power(kW)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -560,7 +560,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Total Energy Regenerated</t>
+          <t>Total Energy Regenerated(kWh)</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -570,7 +570,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Regenerative Effectiveness</t>
+          <t>Regenerative Effectiveness(kWh)</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -580,27 +580,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lowest Cell Voltage</t>
+          <t>Highest Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.985</v>
+        <v>3.339</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Highest Cell Voltage</t>
+          <t>Lowest Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.339</v>
+        <v>2.985</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Difference in Cell Voltage</t>
+          <t>Difference in Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -610,7 +610,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Minimum Temperature</t>
+          <t>Minimum Temperature(C)</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -620,7 +620,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Maximum Temperature</t>
+          <t>Maximum Temperature(C)</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -630,17 +630,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Difference in Temperature</t>
+          <t>Difference in Temperature(C)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v/>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Maximum Fet Temperature</t>
+          <t>Maximum Fet Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -650,7 +650,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Maximum Afe Temperature</t>
+          <t>Maximum Afe Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -660,7 +660,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Maximum PCB Temperature</t>
+          <t>Maximum PCB Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -670,7 +670,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Maximum MCU Temperature</t>
+          <t>Maximum MCU Temperature(C)</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -680,7 +680,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Maximum Motor Temperature</t>
+          <t>Maximum Motor Temperature(C)</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -690,7 +690,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Abnormal Motor Temperature Detected</t>
+          <t>Abnormal Motor Temperature Detected(C)</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -700,7 +700,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>lowest cell temp</t>
+          <t>highest cell temp(C)</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -710,7 +710,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>highest cell temp</t>
+          <t>lowest cell temp(C)</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -720,7 +720,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Difference between Highest and Lowest Cell Temperature at 100% SOC</t>
+          <t>Difference between Highest and Lowest Cell Temperature at 100% SOC(C)</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -730,107 +730,107 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Maximum BMS Temperature in C</t>
+          <t>Battery Voltage(V)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Battery Voltage</t>
+          <t>Total energy charged(kWh)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.5</v>
+        <v>1.970930148611111</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Total energy charged in kWh</t>
+          <t>Electricity consumption units(kW)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1970930148611111</v>
+        <v>6.687194293836812e-08</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Electricity consumption units in kW</t>
+          <t>Idling time percentage</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.687194293836812e-09</v>
+        <v>18.29305715381665</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Idling time percentage</t>
+          <t>Time spent in 0-10 km/h</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>17.45556834164429</v>
+        <v>4.760260836210203</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Time spent in 0-10 km/h</t>
+          <t>Time spent in 10-20 km/h</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>22.21582917785449</v>
+        <v>1.663470144482803</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Time spent in 10-20 km/h</t>
+          <t>Time spent in 20-30 km/h</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.664748753356348</v>
+        <v>3.11724843370413</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Time spent in 20-30 km/h</t>
+          <t>Time spent in 30-40 km/h</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.122362869198312</v>
+        <v>41.70950006393044</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Time spent in 30-40 km/h</t>
+          <t>Time spent in 40-50 km/h</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>41.71205728167753</v>
+        <v>28.17286791970336</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Time spent in 40-50 km/h</t>
+          <t>Time spent in 50-60 km/h</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.44751310574095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Time spent in 50-60 km/h</t>
+          <t>Time spent in 60-70 km/h</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -840,10 +840,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Time spent in 60-70 km/h</t>
+          <t>Time spent in 70-80 km/h</t>
         </is>
       </c>
       <c r="B42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Time spent in 80-90 km/h</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V4/D11_03_2024/B3_B03_13.15_15.30/analysis_B3_B03_13.15_15.30.xlsx
+++ b/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V4/D11_03_2024/B3_B03_13.15_15.30/analysis_B3_B03_13.15_15.30.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
@@ -491,13 +491,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total distance covered (in kilometers)</t>
+          <t>Total distance covered (km)</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -507,7 +507,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WH/KM</t>
+          <t>Total energy consumption(WH/KM)</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -517,7 +517,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total SOC consumed</t>
+          <t>Total SOC consumed(%)</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -540,7 +540,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Peak Power</t>
+          <t>Peak Power(kW)</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -550,7 +550,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Average Power</t>
+          <t>Average Power(kW)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -560,7 +560,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Total Energy Regenerated</t>
+          <t>Total Energy Regenerated(kWh)</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -570,37 +570,37 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Regenerative Effectiveness</t>
+          <t>Regenerative Effectiveness(%)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.201109951715442</v>
+        <v>1.201109951715442</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lowest Cell Voltage</t>
+          <t>Highest Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.985</v>
+        <v>3.339</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Highest Cell Voltage</t>
+          <t>Lowest Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.339</v>
+        <v>2.985</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Difference in Cell Voltage</t>
+          <t>Difference in Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -610,7 +610,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Minimum Temperature</t>
+          <t>Minimum Temperature(C)</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -620,7 +620,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Maximum Temperature</t>
+          <t>Maximum Temperature(C)</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -630,17 +630,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Difference in Temperature</t>
+          <t>Difference in Temperature(C)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v/>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Maximum Fet Temperature</t>
+          <t>Maximum Fet Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -650,7 +650,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Maximum Afe Temperature</t>
+          <t>Maximum Afe Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -660,7 +660,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Maximum PCB Temperature</t>
+          <t>Maximum PCB Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -670,7 +670,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Maximum MCU Temperature</t>
+          <t>Maximum MCU Temperature(C)</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -680,7 +680,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Maximum Motor Temperature</t>
+          <t>Maximum Motor Temperature(C)</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -690,7 +690,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Abnormal Motor Temperature Detected</t>
+          <t>Abnormal Motor Temperature Detected(C)</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -700,7 +700,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>lowest cell temp</t>
+          <t>highest cell temp(C)</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -710,7 +710,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>highest cell temp</t>
+          <t>lowest cell temp(C)</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -720,7 +720,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Difference between Highest and Lowest Cell Temperature at 100% SOC</t>
+          <t>Difference between Highest and Lowest Cell Temperature at 100% SOC(C)</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -730,107 +730,107 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Maximum BMS Temperature in C</t>
+          <t>Battery Voltage(V)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Battery Voltage</t>
+          <t>Total energy charged(kWh)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.5</v>
+        <v>1.970930148611111</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Total energy charged in kWh</t>
+          <t>Electricity consumption units(kW)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1970930148611111</v>
+        <v>6.687194293836812e-08</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Electricity consumption units in kW</t>
+          <t>Idling time percentage</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.687194293836812e-09</v>
+        <v>18.29305715381665</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Idling time percentage</t>
+          <t>Time spent in 0-10 km/h</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>17.45556834164429</v>
+        <v>4.760260836210203</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Time spent in 0-10 km/h</t>
+          <t>Time spent in 10-20 km/h</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>22.21582917785449</v>
+        <v>1.663470144482803</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Time spent in 10-20 km/h</t>
+          <t>Time spent in 20-30 km/h</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.664748753356348</v>
+        <v>3.11724843370413</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Time spent in 20-30 km/h</t>
+          <t>Time spent in 30-40 km/h</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.122362869198312</v>
+        <v>41.70950006393044</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Time spent in 30-40 km/h</t>
+          <t>Time spent in 40-50 km/h</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>41.71205728167753</v>
+        <v>28.17286791970336</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Time spent in 40-50 km/h</t>
+          <t>Time spent in 50-60 km/h</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.44751310574095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Time spent in 50-60 km/h</t>
+          <t>Time spent in 60-70 km/h</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -840,10 +840,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Time spent in 60-70 km/h</t>
+          <t>Time spent in 70-80 km/h</t>
         </is>
       </c>
       <c r="B42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Time spent in 80-90 km/h</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V4/D11_03_2024/B3_B03_13.15_15.30/analysis_B3_B03_13.15_15.30.xlsx
+++ b/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V4/D11_03_2024/B3_B03_13.15_15.30/analysis_B3_B03_13.15_15.30.xlsx
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="B1" s="1" t="n">
-        <v>0.09476607638888888</v>
+        <v>0.08995199074074074</v>
       </c>
     </row>
     <row r="2">
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.83509361111111</v>
+        <v>35.05374861111112</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1842.9312340325</v>
+        <v>1804.831415305278</v>
       </c>
     </row>
     <row r="4">
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.126</v>
+        <v>3.902</v>
       </c>
     </row>
     <row r="6">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>69.78145244294669</v>
+        <v>67.44375803705395</v>
       </c>
     </row>
     <row r="9">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26.41004406635532</v>
+        <v>26.76054045377623</v>
       </c>
     </row>
     <row r="10">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
@@ -533,7 +533,7 @@
       <c r="B11" t="inlineStr">
         <is>
           <t>Eco mode
-98.43%</t>
+100.00%</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-813.6561739657836</v>
+        <v>-839.3480293371658</v>
       </c>
     </row>
     <row r="14">
@@ -564,17 +564,17 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22.40473596861111</v>
+        <v>19.54605749888889</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Regenerative Effectiveness(kWh)</t>
+          <t>Regenerative Effectiveness(%)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.201109951715442</v>
+        <v>1.071382309322508</v>
       </c>
     </row>
     <row r="16">
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.985</v>
+        <v>3.024</v>
       </c>
     </row>
     <row r="18">
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3540000000000001</v>
+        <v>0.3149999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.970930148611111</v>
+        <v>1.927956173611111</v>
       </c>
     </row>
     <row r="33">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.687194293836812e-08</v>
+        <v>6.891563268030396e-08</v>
       </c>
     </row>
     <row r="34">
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>18.29305715381665</v>
+        <v>18.10137851034557</v>
       </c>
     </row>
     <row r="35">
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.760260836210203</v>
+        <v>3.625671045887399</v>
       </c>
     </row>
     <row r="36">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.663470144482803</v>
+        <v>1.754835576897138</v>
       </c>
     </row>
     <row r="37">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.11724843370413</v>
+        <v>2.947206560738083</v>
       </c>
     </row>
     <row r="38">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>41.70950006393044</v>
+        <v>41.9757749062559</v>
       </c>
     </row>
     <row r="39">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>28.17286791970336</v>
+        <v>29.21983328387602</v>
       </c>
     </row>
     <row r="40">

--- a/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V4/D11_03_2024/B3_B03_13.15_15.30/analysis_B3_B03_13.15_15.30.xlsx
+++ b/Automationdashboard/MAIN_FOLDER/Automation_Dashboard_Batterywise/V4/D11_03_2024/B3_B03_13.15_15.30/analysis_B3_B03_13.15_15.30.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,270 +427,272 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Total time taken for the ride</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>0.09476607638888888</v>
+          <t>Date and Time</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>2024-03-11 13:17:50.432000 to 2024-03-11 15:29:55.824000</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Actual Ampere-hours (Ah)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>35.83509361111111</v>
+          <t>Total time taken for the ride</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.09476607638888888</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Actual Watt-hours (Wh)</t>
+          <t>Actual Ampere-hours (Ah)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1842.9312340325</v>
+        <v>35.83509361111111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Starting SoC (Ah)</t>
+          <t>Actual Watt-hours (Wh)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.646</v>
+        <v>1842.9312340325</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ending SoC (Ah)</t>
+          <t>Starting SoC (Ah)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.126</v>
+        <v>38.646</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Starting SoC (%)</t>
+          <t>Ending SoC (Ah)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97</v>
+        <v>3.126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ending SoC (%)</t>
+          <t>Starting SoC (%)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total distance covered (km)</t>
+          <t>Ending SoC (%)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>69.78145244294669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Total energy consumption(WH/KM)</t>
+          <t>Total distance covered (km)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26.41004406635532</v>
+        <v>69.78145244294669</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total SOC consumed(%)</t>
+          <t>Total energy consumption(WH/KM)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97</v>
+        <v>26.41004406635532</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Total SOC consumed(%)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Mode</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Eco mode
 98.43%</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Peak Power(kW)</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2438.510646</v>
-      </c>
-    </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Average Power(kW)</t>
+          <t>Peak Power(kW)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-813.6561739657836</v>
+        <v>2438.510646</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Total Energy Regenerated(kWh)</t>
+          <t>Average Power(kW)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22.40473596861111</v>
+        <v>-813.6561739657836</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Regenerative Effectiveness(%)</t>
+          <t>Total Energy Regenerated(kWh)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.201109951715442</v>
+        <v>22.40473596861111</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Highest Cell Voltage(V)</t>
+          <t>Regenerative Effectiveness(%)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.339</v>
+        <v>1.201109951715442</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lowest Cell Voltage(V)</t>
+          <t>Highest Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.985</v>
+        <v>3.339</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Difference in Cell Voltage(V)</t>
+          <t>Lowest Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3540000000000001</v>
+        <v>2.985</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Minimum Temperature(C)</t>
+          <t>Difference in Cell Voltage(V)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23</v>
+        <v>0.3540000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Maximum Temperature(C)</t>
+          <t>Minimum Temperature(C)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Difference in Temperature(C)</t>
+          <t>Maximum Temperature(C)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Maximum Fet Temperature-BMS(C)</t>
+          <t>Difference in Temperature(C)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Maximum Afe Temperature-BMS(C)</t>
+          <t>Maximum Fet Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Maximum PCB Temperature-BMS(C)</t>
+          <t>Maximum Afe Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Maximum MCU Temperature(C)</t>
+          <t>Maximum PCB Temperature-BMS(C)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Maximum Motor Temperature(C)</t>
+          <t>Maximum MCU Temperature(C)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Abnormal Motor Temperature Detected(C)</t>
+          <t>Maximum Motor Temperature(C)</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -700,147 +702,147 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>highest cell temp(C)</t>
+          <t>Abnormal Motor Temperature Detected(C)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>lowest cell temp(C)</t>
+          <t>highest cell temp(C)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Difference between Highest and Lowest Cell Temperature at 100% SOC(C)</t>
+          <t>lowest cell temp(C)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Battery Voltage(V)</t>
+          <t>Difference between Highest and Lowest Cell Temperature at 100% SOC(C)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Total energy charged(kWh)</t>
+          <t>Battery Voltage(V)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.970930148611111</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Electricity consumption units(kW)</t>
+          <t>Total energy charged(kWh)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.687194293836812e-08</v>
+        <v>1.970930148611111</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Idling time percentage</t>
+          <t>Electricity consumption units(kW)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>18.29305715381665</v>
+        <v>6.687194293836812e-08</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Time spent in 0-10 km/h</t>
+          <t>Cycle Count of battery</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.760260836210203</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Time spent in 10-20 km/h</t>
+          <t>Idling time percentage</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.663470144482803</v>
+        <v>18.29305715381665</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Time spent in 20-30 km/h</t>
+          <t>Time spent in 0-10 km/h</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.11724843370413</v>
+        <v>4.760260836210203</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Time spent in 30-40 km/h</t>
+          <t>Time spent in 10-20 km/h</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>41.70950006393044</v>
+        <v>1.663470144482803</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Time spent in 40-50 km/h</t>
+          <t>Time spent in 20-30 km/h</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>28.17286791970336</v>
+        <v>3.11724843370413</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Time spent in 50-60 km/h</t>
+          <t>Time spent in 30-40 km/h</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>41.70950006393044</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Time spent in 60-70 km/h</t>
+          <t>Time spent in 40-50 km/h</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>28.17286791970336</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Time spent in 70-80 km/h</t>
+          <t>Time spent in 50-60 km/h</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -850,10 +852,30 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>Time spent in 60-70 km/h</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Time spent in 70-80 km/h</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>Time spent in 80-90 km/h</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B45" t="n">
         <v>0</v>
       </c>
     </row>
